--- a/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
@@ -451,687 +451,925 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>104.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9272</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>008551</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>西藏东财中证医药卫生指数A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>95.91</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>008552</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>西藏东财中证医药卫生指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>95.91</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>010366</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>鹏华中证医药卫生指数（LOF）C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>94.58</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2.41</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010572</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159992</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华中证创新药产业ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515960</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实中证医药健康100策略ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>98.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161122</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161726</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商国证生物医药指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>165519</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信诚中证800医药指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159929</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富中证医药卫生ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>99.74</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>512120</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安中证细分医药ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>98.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003069</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>光大保德信创业板量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003070</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>光大保德信创业板量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160420</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安创业板50指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>160635</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华中证医药卫生指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007464</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>交银施罗德创业板50指数A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007465</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>交银施罗德创业板50指数C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001834</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长盛战略新兴产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>70.13</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>159949</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华安创业板50ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>99.74</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004394</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化创优灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>93.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>501009</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇添富中证生物科技主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>501010</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇添富中证生物科技主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>080008</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>长盛战略新兴产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>70.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1400,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159948</t>
+          <t>161726</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方创业板ETF</t>
+          <t>招商国证生物医药指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.50</t>
+          <t>127.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安创业板50ETF</t>
+          <t>易方达创业板ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.84</t>
+          <t>171.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159955</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实创业板ETF</t>
+          <t>华安创业板50ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>117.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8973</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159958</t>
+          <t>159992</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信创业板ETF</t>
+          <t>银华中证创新药产业ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>39.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1294,25 +1582,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004394</t>
+          <t>159837</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化创优灵活配置混合</t>
+          <t>易方达中证生物科技主题ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>25.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2802</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501009</t>
+          <t>512290</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证生物科技主题指数（LOF）A</t>
+          <t>国泰中证生物医药ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>33.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1081</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501010</t>
+          <t>159977</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证生物科技主题指数（LOF）C</t>
+          <t>天弘创业板ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>43.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0638</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501005</t>
+          <t>501009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>20.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501006</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+          <t>易方达沪深300医药卫生ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>20.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7977</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1434,25 +1772,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>165519</t>
+          <t>515120</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>信诚中证800医药指数（LOF）</t>
+          <t>广发中证创新药产业ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6692</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>501005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数A</t>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>13.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6391</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002982</t>
+          <t>159948</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数C</t>
+          <t>南方创业板ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>24.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6093</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007464</t>
+          <t>002264</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>交银施罗德创业板50指数A</t>
+          <t>华夏乐享健康灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5947</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007465</t>
+          <t>161122</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>交银施罗德创业板50指数C</t>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5651</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>159952</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达沪深300医药卫生ETF</t>
+          <t>广发创业板ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>99.04</t>
+          <t>21.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5199</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>512120</t>
+          <t>007464</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华安中证细分医药ETF</t>
+          <t>交银施罗德创业板50指数A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>15.72</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4968</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011040</t>
+          <t>501010</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天弘国证生物医药指数A</t>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>10.46</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011041</t>
+          <t>159938</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天弘国证生物医药指数C</t>
+          <t>广发中证全指医药卫生ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1686,25 +2114,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>512290</t>
+          <t>161022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰中证生物医药ETF</t>
+          <t>富国创业板指数</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>512610</t>
+          <t>160420</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实中证医药卫生ETF</t>
+          <t>华安创业板50指数（LOF）A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>99.01</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>515120</t>
+          <t>011040</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发中证创新药产业ETF</t>
+          <t>天弘国证生物医药指数A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>515960</t>
+          <t>011041</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实中证医药健康100策略ETF</t>
+          <t>天弘国证生物医药指数C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>159808</t>
+          <t>007465</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>融通创业板ETF</t>
+          <t>交银施罗德创业板50指数C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>99.70</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>159814</t>
+          <t>501006</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>西部利得创业板大盘ETF</t>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>98.37</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>159821</t>
+          <t>159929</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中银证券创业板ETF</t>
+          <t>汇添富中证医药卫生ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>98.28</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1882,25 +2380,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>159837</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>易方达中证生物科技主题ETF</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1920,15 +2428,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>98.85</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2.47</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1938,25 +2456,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>159964</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>易方达创业板ETF</t>
+          <t>平安创业板ETF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>159929</t>
+          <t>159958</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>汇添富中证医药卫生ETF</t>
+          <t>工银瑞信创业板ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>159938</t>
+          <t>165519</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广发中证全指医药卫生ETF</t>
+          <t>信诚中证800医药指数（LOF）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2022,25 +2570,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>159952</t>
+          <t>159957</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>广发创业板ETF</t>
+          <t>华夏创业板ETF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>99.30</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>159956</t>
+          <t>163118</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>建信创业板ETF</t>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>159957</t>
+          <t>512120</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华夏创业板ETF</t>
+          <t>华安中证细分医药ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>98.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2106,25 +2684,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>159964</t>
+          <t>009046</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>平安创业板ETF</t>
+          <t>西藏东财创业板指数A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>159971</t>
+          <t>164401</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>富国创业板ETF</t>
+          <t>前海开源中证健康产业指数</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2162,25 +2760,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>159977</t>
+          <t>160223</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天弘创业板ETF</t>
+          <t>国泰创业板指数（LOF）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>99.61</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2190,25 +2798,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>159991</t>
+          <t>007664</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>招商创业板大盘ETF</t>
+          <t>永赢创业板指数A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>98.98</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>159992</t>
+          <t>159991</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>银华中证创新药产业ETF</t>
+          <t>招商创业板大盘ETF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>98.32</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>160223</t>
+          <t>008551</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国泰创业板指数（LOF）</t>
+          <t>西藏东财中证医药卫生指数A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>160420</t>
+          <t>004394</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华安创业板50指数（LOF）A</t>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>9</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>160635</t>
+          <t>159808</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>鹏华中证医药卫生指数（LOF）A</t>
+          <t>融通创业板ETF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>8</v>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>010366</t>
+          <t>159814</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>鹏华中证医药卫生指数（LOF）C</t>
+          <t>西部利得创业板大盘ETF</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>8</v>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>161022</t>
+          <t>003069</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>富国创业板指数</t>
+          <t>光大保德信创业板量化优选股票A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>10</v>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>161122</t>
+          <t>515960</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
+          <t>嘉实中证医药健康100策略ETF</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>5</v>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>010572</t>
+          <t>160635</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>5</v>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>002264</t>
+          <t>159956</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华夏乐享健康灵活配置混合</t>
+          <t>建信创业板ETF</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>7</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2480,15 +3188,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>94.76</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>5.39</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>161726</t>
+          <t>009047</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>招商国证生物医药指数</t>
+          <t>西藏东财创业板指数C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>5</v>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>163118</t>
+          <t>007665</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+          <t>永赢创业板指数C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>009046</t>
+          <t>008552</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>西藏东财创业板指数A</t>
+          <t>西藏东财中证医药卫生指数C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>95.26</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>10</v>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -2582,25 +3330,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>009047</t>
+          <t>159955</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>西藏东财创业板指数C</t>
+          <t>嘉实创业板ETF</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>95.26</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2610,25 +3368,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>007664</t>
+          <t>159821</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>永赢创业板指数A</t>
+          <t>中银证券创业板ETF</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>007665</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>永赢创业板指数C</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>10</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>003069</t>
+          <t>512610</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>光大保德信创业板量化优选股票A</t>
+          <t>嘉实中证医药卫生ETF</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>90.50</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>6</v>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>003070</t>
+          <t>010572</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>光大保德信创业板量化优选股票C</t>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>90.50</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>6</v>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>008551</t>
+          <t>159971</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>西藏东财中证医药卫生指数A</t>
+          <t>富国创业板ETF</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>95.48</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>8</v>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -2750,25 +3558,35 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>008552</t>
+          <t>010366</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>西藏东财中证医药卫生指数C</t>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>95.48</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2778,26 +3596,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>003070</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>8</v>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3604,7 +3605,6 @@
           <t>光大保德信创业板量化优选股票C</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>90.50</t>
@@ -3620,6 +3620,1810 @@
       </c>
       <c r="H59" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3835</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9476</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6915</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6872</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4634</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3743</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3705</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5429,4 +5430,3822 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2190</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5241</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3881</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0963</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0438</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8919</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8354</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0717</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0192</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8790</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8334</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8185</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8015</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7997</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7749</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6691</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6347</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6345</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4789</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4714</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011316</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天弘创业板300指数A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011317</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘创业板300指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9248,4 +9249,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9257,7 +9258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9268,17 +9269,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9288,14 +9309,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>99</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.72</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.7248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9304,14 +9347,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.27</v>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -9320,14 +9385,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.72</v>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>126.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -9336,13 +9423,3989 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5693</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5315</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5141</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3981</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4524</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0899</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0830</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0283</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9707</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8891</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8598</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8358</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7562</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7261</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7219</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3943</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>16.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13304,7 +13305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13315,17 +13316,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13335,14 +13356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>105</v>
-      </c>
-      <c r="D2" t="n">
-        <v>55.09</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.2693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -13351,14 +13394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>99</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.72</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>280.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.5618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -13367,14 +13432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.27</v>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>170.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7636</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -13383,14 +13470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>58</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.72</v>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>119.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -13399,13 +13508,4609 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6450</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6708</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6264</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4840</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1629</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1272</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0764</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0565</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9997</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9619</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9486</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9249</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8635</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8568</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8455</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7676</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7467</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7122</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6893</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6483</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5312</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4982</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4725</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3446</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2813</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>95.87</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014985</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>105</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>16.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17993,7 +17994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18004,17 +18005,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18024,14 +18045,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>122</v>
-      </c>
-      <c r="D2" t="n">
-        <v>83.22</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>324.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.8256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -18040,14 +18083,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>105</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55.09</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>138.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.0536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -18056,14 +18121,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>99</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.72</v>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -18072,14 +18159,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>46</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.27</v>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>169.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7729</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -18088,14 +18197,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>58</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.72</v>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -18104,13 +18235,4057 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4892</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2398</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2729</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2472</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2170</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0976</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0857</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0587</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9366</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7900</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7048</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6967</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6938</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6815</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6300</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5826</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161613</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通创业板指数A\B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013277</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国创业板指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004870</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通创业板指数C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014218</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014985</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014219</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>015600</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>105</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>16.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300142-沃森生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>66.75</v>
+        <v>46.96</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
-        <v>83.22</v>
+        <v>66.75</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D4" t="n">
-        <v>55.09</v>
+        <v>83.22</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>51.72</v>
+        <v>55.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n">
-        <v>21.27</v>
+        <v>51.72</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>31.72</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>16.9</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007119</t>
+          <t>161726</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>睿远成长价值混合A</t>
+          <t>招商国证生物医药指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>324.88</t>
+          <t>117.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11.8256</t>
+          <t>9.6146</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161726</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商国证生物医药指数</t>
+          <t>易方达沪深300医药卫生ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>138.17</t>
+          <t>110.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>99.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.0536</t>
+          <t>4.7251</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512010</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达沪深300医药卫生ETF</t>
+          <t>易方达创业板ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>160.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.1355</t>
+          <t>3.3411</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>159992</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达创业板ETF</t>
+          <t>银华中证创新药产业ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>169.95</t>
+          <t>43.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.87</t>
+          <t>98.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.7729</t>
+          <t>2.6554</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>512290</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安创业板50ETF</t>
+          <t>国泰中证生物医药ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100.67</t>
+          <t>40.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.56</t>
+          <t>99.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.8389</t>
+          <t>2.5438</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159992</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华中证创新药产业ETF</t>
+          <t>华安创业板50ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>43.20</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.53</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.7259</t>
+          <t>2.4779</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512290</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰中证生物医药ETF</t>
+          <t>易方达中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>37.32</t>
+          <t>58.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.74</t>
+          <t>99.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.4892</t>
+          <t>1.8863</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>012417</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+          <t>招商国证生物医药指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>67.21</t>
+          <t>16.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.74</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.4128</t>
+          <t>1.3643</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501009</t>
+          <t>159783</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富中证生物科技主题指数（LOF）A</t>
+          <t>华夏中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>39.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>99.65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.2398</t>
+          <t>1.2655</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159783</t>
+          <t>159859</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+          <t>天弘国证生物医药ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>47.52</t>
+          <t>14.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.65</t>
+          <t>99.79</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.7060</t>
+          <t>1.2392</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007120</t>
+          <t>501009</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>睿远成长价值混合C</t>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>34.97</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.2729</t>
+          <t>1.0937</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012417</t>
+          <t>515120</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商国证生物医药指数C</t>
+          <t>广发中证创新药产业ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15.59</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>99.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.2472</t>
+          <t>1.0256</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>159780</t>
+          <t>159837</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+          <t>易方达中证生物科技主题ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33.90</t>
+          <t>16.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>99.78</t>
+          <t>99.10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.2170</t>
+          <t>1.0011</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1160,22 +1177,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>49.44</t>
+          <t>45.08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>99.92</t>
+          <t>99.96</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.0976</t>
+          <t>0.9422</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159837</t>
+          <t>159780</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达中证生物科技主题ETF</t>
+          <t>南方中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>28.98</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>99.04</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.0857</t>
+          <t>0.9418</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>159859</t>
+          <t>501010</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>99.99</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.0587</t>
+          <t>0.8327</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>501010</t>
+          <t>159938</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇添富中证生物科技主题指数（LOF）C</t>
+          <t>广发中证全指医药卫生ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>32.02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>99.24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.9366</t>
+          <t>0.6660</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>515120</t>
+          <t>161122</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发中证创新药产业ETF</t>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.39</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.9138</t>
+          <t>0.5874</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>012894</t>
+          <t>588380</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天弘中证科创创业50指数证券投资基金A</t>
+          <t>富国中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23.10</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>98.98</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.7900</t>
+          <t>0.5531</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>161122</t>
+          <t>588400</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）A</t>
+          <t>嘉实中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>16.80</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>99.44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.7048</t>
+          <t>0.5426</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>588380</t>
+          <t>588300</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国中证科创创业50交易型开放式指数</t>
+          <t>招商中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>19.46</t>
+          <t>13.55</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>99.57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.6967</t>
+          <t>0.4390</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1459,31 +1476,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+          <t>鹏扬中证科创创业50指数A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20.67</t>
+          <t>13.99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.6966</t>
+          <t>0.4267</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>588400</t>
+          <t>159948</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+          <t>南方创业板ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19.38</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>99.82</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.6938</t>
+          <t>0.4230</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1530,36 +1547,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>159938</t>
+          <t>159952</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发中证全指医药卫生ETF</t>
+          <t>广发创业板ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29.89</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>99.54</t>
+          <t>99.61</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.6815</t>
+          <t>0.3749</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1568,36 +1585,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>012895</t>
+          <t>159839</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天弘中证科创创业50指数证券投资基金C</t>
+          <t>汇添富国证生物医药ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18.42</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.6300</t>
+          <t>0.3415</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1606,32 +1623,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007464</t>
+          <t>588330</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>交银施罗德创业板50指数A</t>
+          <t>华宝中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22.69</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>98.16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.6013</t>
+          <t>0.3321</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1644,36 +1661,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>588300</t>
+          <t>159929</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+          <t>汇添富中证医药卫生ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>10.87</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>99.47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.5826</t>
+          <t>0.3207</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1682,36 +1699,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>159948</t>
+          <t>012895</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>南方创业板ETF</t>
+          <t>天弘中证科创创业50ETF联接C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23.62</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>99.75</t>
+          <t>59.85</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.5220</t>
+          <t>0.3035</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1720,36 +1737,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>588330</t>
+          <t>160219</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>98.53</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.4224</t>
+          <t>0.2966</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1758,36 +1775,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>159952</t>
+          <t>007464</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广发创业板ETF</t>
+          <t>交银施罗德创业板50指数A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.4088</t>
+          <t>0.2563</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1796,36 +1813,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>160219</t>
+          <t>160420</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国泰国证医药卫生行业指数（LOF）A</t>
+          <t>华安创业板50指数（LOF）A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.3609</t>
+          <t>0.2558</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1839,31 +1856,31 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+          <t>银华中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>98.31</t>
+          <t>98.02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.3292</t>
+          <t>0.2514</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1872,32 +1889,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>160420</t>
+          <t>159603</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华安创业板50指数（LOF）A</t>
+          <t>天弘中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>99.95</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.3169</t>
+          <t>0.2330</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1910,36 +1927,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>159929</t>
+          <t>159908</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>汇添富中证医药卫生ETF</t>
+          <t>博时创业板ETF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>99.25</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.3018</t>
+          <t>0.1998</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1948,36 +1965,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>159839</t>
+          <t>007465</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>汇添富国证生物医药ETF</t>
+          <t>交银施罗德创业板50指数C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>99.47</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.2880</t>
+          <t>0.1971</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1986,36 +2003,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>007465</t>
+          <t>161022</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>交银施罗德创业板50指数C</t>
+          <t>富国创业板指数A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10.19</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.2700</t>
+          <t>0.1817</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2024,36 +2041,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>161022</t>
+          <t>588360</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>富国创业板指数</t>
+          <t>国泰中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>99.08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.2270</t>
+          <t>0.1602</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2062,36 +2079,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>588360</t>
+          <t>516080</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+          <t>易方达中证创新药产业ETF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>98.83</t>
+          <t>98.96</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.1999</t>
+          <t>0.1514</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2100,36 +2117,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>159908</t>
+          <t>515960</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>博时创业板ETF</t>
+          <t>嘉实中证医药健康100策略ETF</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>98.86</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.1764</t>
+          <t>0.1250</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2138,36 +2155,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>516080</t>
+          <t>512120</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>易方达中证创新药产业ETF</t>
+          <t>华安中证细分医药ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>98.76</t>
+          <t>98.58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.1716</t>
+          <t>0.1248</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2181,31 +2198,31 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+          <t>华泰柏瑞中证沪港深创新药产业ETF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>96.26</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.1524</t>
+          <t>0.1228</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2214,36 +2231,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>012898</t>
+          <t>560900</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>兴银中证科创创业50指数型证券投资基金A</t>
+          <t>上投摩根中证创新药产业ETF</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.1353</t>
+          <t>0.1117</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2257,27 +2274,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>信诚中证800医药指数（LOF）</t>
+          <t>信诚中证800医药指数（LOF）A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.1342</t>
+          <t>0.1094</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2295,31 +2312,31 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+          <t>鹏扬中证科创创业50指数C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.1270</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -2328,36 +2345,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>512120</t>
+          <t>588390</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华安中证细分医药ETF</t>
+          <t>博时中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>98.51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.1063</t>
+          <t>0.0896</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2371,31 +2388,31 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>融通创业板指数A\B</t>
+          <t>融通创业板指数增强A/B</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0994</t>
+          <t>0.0846</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2404,36 +2421,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>159748</t>
+          <t>012898</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>富国中证沪港深创新药产业ETF</t>
+          <t>兴银中证科创创业50指数A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0873</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2442,36 +2459,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>003069</t>
+          <t>012894</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>光大保德信创业板量化优选股票A</t>
+          <t>天弘中证科创创业50ETF联接A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>59.85</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0857</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -2480,36 +2497,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>159964</t>
+          <t>159814</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>平安创业板ETF</t>
+          <t>西部利得创业板大盘ETF</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>97.81</t>
+          <t>99.58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0801</t>
+          <t>0.0705</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -2518,32 +2535,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>163118</t>
+          <t>159748</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+          <t>富国中证沪港深创新药产业ETF</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>98.42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0784</t>
+          <t>0.0687</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2556,36 +2573,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>159957</t>
+          <t>010572</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华夏创业板ETF</t>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>99.50</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0774</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2594,36 +2611,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>517110</t>
+          <t>159957</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国泰中证沪港深创新药产业ETF</t>
+          <t>华夏创业板ETF</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>99.22</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0646</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2632,36 +2649,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>516500</t>
+          <t>163118</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华夏中证生物科技主题ETF</t>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0639</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2670,36 +2687,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>159760</t>
+          <t>159964</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>泰康国证公共卫生与健康ETF</t>
+          <t>平安创业板ETF</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>98.44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0717</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2718,22 +2735,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>99.25</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2746,36 +2763,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>159814</t>
+          <t>517110</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>西部利得创业板大盘ETF</t>
+          <t>国泰中证沪港深创新药产业ETF</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>99.82</t>
+          <t>97.51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2789,27 +2806,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>工银瑞信中证创新药产业ETF</t>
+          <t>工银新药ETF</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>98.26</t>
+          <t>98.53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0636</t>
+          <t>0.0606</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2822,36 +2839,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>163209</t>
+          <t>159760</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）A</t>
+          <t>泰康国证公共卫生与健康ETF</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>98.67</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0605</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -2860,36 +2877,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>010572</t>
+          <t>516500</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>易方达中证万得生物科技指数（LOF）C</t>
+          <t>华夏中证生物科技主题ETF</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>98.95</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.0589</t>
+          <t>0.0547</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -2898,36 +2915,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>003070</t>
+          <t>159858</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>光大保德信创业板量化优选股票C</t>
+          <t>南方中证创新药产业ETF</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>99.70</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0470</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -2936,36 +2953,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>159858</t>
+          <t>003070</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>南方中证创新药产业ETF</t>
+          <t>光大保德信创业板量化优选股票C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>99.60</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.0424</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -2974,36 +2991,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>516930</t>
+          <t>159835</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+          <t>建信中证创新药产业ETF</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>97.34</t>
+          <t>98.09</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0472</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -3012,36 +3029,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>009046</t>
+          <t>516930</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>西藏东财创业板指数A</t>
+          <t>民生加银中证生物科技主题ETF</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>95.22</t>
+          <t>97.99</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.0447</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -3050,32 +3067,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>007664</t>
+          <t>159958</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>永赢创业板指数A</t>
+          <t>工银创业板ET</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>98.46</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.0445</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3088,32 +3105,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>159958</t>
+          <t>160223</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>工银瑞信创业板ETF</t>
+          <t>国泰创业板指数（LOF）A</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>99.27</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3126,36 +3143,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>008551</t>
+          <t>163209</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>西藏东财中证医药卫生指数A</t>
+          <t>诺安创业板指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0406</t>
+          <t>0.0299</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3164,36 +3181,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>159835</t>
+          <t>159773</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>建信中证创新药产业ETF</t>
+          <t>华泰柏瑞创业板科技ETF</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>98.57</t>
+          <t>97.11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.0273</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -3202,32 +3219,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>159773</t>
+          <t>160635</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华泰柏瑞创业板科技ETF</t>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>98.10</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -3240,32 +3257,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>160223</t>
+          <t>007664</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国泰创业板指数（LOF）</t>
+          <t>永赢创业板指数A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.0372</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3288,26 +3305,26 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>76.66</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0259</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -3316,36 +3333,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>160635</t>
+          <t>007665</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>鹏华中证医药卫生指数（LOF）A</t>
+          <t>永赢创业板指数C</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.0311</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3354,36 +3371,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>012598</t>
+          <t>009046</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华安国证生物医药指数A</t>
+          <t>西藏东财创业板指数A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3392,36 +3409,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>010356</t>
+          <t>014985</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）C</t>
+          <t>华安创业板50指数（LOF）C</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.0245</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -3440,22 +3457,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>99.55</t>
+          <t>99.02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3468,36 +3485,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>160637</t>
+          <t>003069</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鹏华创业板指数（LOF）</t>
+          <t>光大保德信创业板量化优选股票A</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3506,36 +3523,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>012899</t>
+          <t>008552</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>兴银中证科创创业50指数型证券投资基金C</t>
+          <t>西藏东财中证医药卫生指数C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>94.96</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.0251</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -3544,32 +3561,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>004394</t>
+          <t>160637</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化创优灵活配置混合</t>
+          <t>鹏华创业板指数（LOF）A</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3582,32 +3599,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>007665</t>
+          <t>010356</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>永赢创业板指数C</t>
+          <t>诺安创业板指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3620,36 +3637,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>159956</t>
+          <t>012899</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>建信创业板ETF</t>
+          <t>兴银中证科创创业50指数C</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>97.01</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -3658,36 +3675,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>008552</t>
+          <t>012599</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>西藏东财中证医药卫生指数C</t>
+          <t>华安国证生物医药指数C</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -3696,36 +3713,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>012401</t>
+          <t>588310</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>天弘中证医药指数增强A</t>
+          <t>方正富邦中证科创创业50ETF</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>96.67</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -3734,36 +3751,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>159808</t>
+          <t>008551</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>融通创业板ETF</t>
+          <t>西藏东财中证医药卫生指数A</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>99.36</t>
+          <t>94.96</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -3772,32 +3789,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>013277</t>
+          <t>159808</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>富国创业板指数C</t>
+          <t>融通创业板ETF</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>98.66</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3810,32 +3827,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>009047</t>
+          <t>159956</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>西藏东财创业板指数C</t>
+          <t>建信创业板ETF</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>95.22</t>
+          <t>96.71</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3848,12 +3865,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>012599</t>
+          <t>012598</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>华安国证生物医药指数C</t>
+          <t>华安国证生物医药指数A</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3863,21 +3880,21 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -3896,26 +3913,26 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.0124</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -3924,32 +3941,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>004870</t>
+          <t>013277</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>融通创业板指数C</t>
+          <t>富国创业板指数C</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3962,36 +3979,36 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>014128</t>
+          <t>009047</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>西藏东财中证沪港深创新药产业指数A</t>
+          <t>西藏东财创业板指数C</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -4000,36 +4017,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>012402</t>
+          <t>004870</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>天弘中证医药指数增强C</t>
+          <t>融通创业板指数增强C</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -4038,36 +4055,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>159836</t>
+          <t>014128</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>99.69</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -4076,36 +4093,36 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>159821</t>
+          <t>010366</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>中银证券创业板ETF</t>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -4114,36 +4131,36 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>010366</t>
+          <t>159810</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>鹏华中证医药卫生指数（LOF）C</t>
+          <t>浦银安盛创业板ETF</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
@@ -4152,36 +4169,36 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>159777</t>
+          <t>012402</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>国联安创业板科技ETF</t>
+          <t>天弘中证医药指数增强C</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>95.66</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -4190,36 +4207,36 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>159810</t>
+          <t>159836</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>浦银安盛创业板ETF</t>
+          <t>天弘创业板300ETF</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>99.72</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -4228,36 +4245,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>005948</t>
+          <t>012401</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
+          <t>天弘中证医药指数增强A</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -4266,36 +4283,36 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>014218</t>
+          <t>159777</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>汇添富中证科创创业50指数增强A</t>
+          <t>国联安创业板科技ETF</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -4304,36 +4321,36 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>168301</t>
+          <t>015176</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>86.17</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -4342,36 +4359,36 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>010785</t>
+          <t>013080</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>博时创业板指数A</t>
+          <t>信诚中证800医药指数（LOF）C</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -4380,36 +4397,36 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>014985</t>
+          <t>005948</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>华安创业板50指数（LOF）C</t>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>76.66</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -4418,36 +4435,36 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>512610</t>
+          <t>159821</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>嘉实中证医药卫生ETF</t>
+          <t>中银证券创业板ETF</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>98.37</t>
+          <t>98.14</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -4456,36 +4473,36 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>013080</t>
+          <t>159955</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>信诚中证800医药指数（LOF）C</t>
+          <t>嘉实创业板ETF</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -4494,32 +4511,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>159955</t>
+          <t>159971</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>嘉实创业板ETF</t>
+          <t>富国创业板ETF</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>96.86</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -4532,32 +4549,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>159971</t>
+          <t>010785</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>富国创业板ETF</t>
+          <t>博时创业板指数A</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>98.01</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -4570,36 +4587,36 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>010786</t>
+          <t>010144</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>博时创业板指数C</t>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -4608,36 +4625,36 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>015176</t>
+          <t>010786</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+          <t>博时创业板指数C</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -4646,32 +4663,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>014219</t>
+          <t>015600</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>汇添富中证科创创业50指数增强C</t>
+          <t>国泰创业板指数（LOF）C</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -4684,36 +4701,36 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>010144</t>
+          <t>015673</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>国泰国证医药卫生行业指数（LOF）C</t>
+          <t>鹏华创业板指数（LOF）C</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -4722,12 +4739,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>015600</t>
+          <t>016010</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>国泰创业板指数（LOF）C</t>
+          <t>兴银中证科创创业50指数E</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4737,19 +4754,19 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4758,6 +4775,4164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>324.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.8256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>138.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.0536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创业板ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>169.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7729</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4892</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2398</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2729</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2472</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2170</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘创业板ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0976</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0857</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0587</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9366</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7900</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7048</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6967</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6938</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6815</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6300</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5826</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159948</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方创业板ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159952</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发创业板ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161022</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国创业板指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159908</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创业板ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161613</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通创业板指数A\B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159964</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安创业板ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159957</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏创业板ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.82</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009046</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007664</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>永赢创业板指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159958</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>160223</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160637</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华创业板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007665</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢创业板指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159956</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>建信创业板ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通创业板ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013277</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国创业板指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009047</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财创业板指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004870</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通创业板指数C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159821</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银证券创业板ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014218</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010785</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时创业板指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014985</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159955</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实创业板ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159971</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国创业板ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010786</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时创业板指数C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014219</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>015600</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国泰创业板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9445,7 +13620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13491,7 +17666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17309,7 +21484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19113,7 +23288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21366,7 +25541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
